--- a/25/notes25.xlsx
+++ b/25/notes25.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4B23F17-AEE0-49E8-B1FD-B35368FC04C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE8142BE-F9A3-4FE9-B8AC-69A6F344C11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="id" sheetId="2" r:id="rId1"/>
     <sheet name="ds_1" sheetId="13" r:id="rId2"/>
+    <sheet name="ds_2" sheetId="14" r:id="rId3"/>
+    <sheet name="ds_3" sheetId="15" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="133">
   <si>
     <t>nom</t>
   </si>
@@ -472,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -480,6 +482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64283CC8-C304-4B52-AE90-322448EF9EB7}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B2:B43"/>
+    <sheetView topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1664,6 +1667,9 @@
       <c r="E43" s="4" t="s">
         <v>131</v>
       </c>
+      <c r="F43" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2"/>
@@ -2074,11 +2080,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220C1335-1202-4607-B051-A1A53CE7C911}">
-  <dimension ref="A1:AH44"/>
+  <dimension ref="A1:AH43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X5" sqref="X5"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3343,6 +3349,2811 @@
     </row>
     <row r="21" spans="1:28">
       <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>6</v>
+      </c>
+      <c r="N21">
+        <v>6</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="P21">
+        <v>6</v>
+      </c>
+      <c r="Q21">
+        <v>6</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
+      </c>
+      <c r="S21">
+        <v>6</v>
+      </c>
+      <c r="T21">
+        <v>6</v>
+      </c>
+      <c r="U21">
+        <v>5</v>
+      </c>
+      <c r="V21">
+        <v>2</v>
+      </c>
+      <c r="W21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>6</v>
+      </c>
+      <c r="K22">
+        <v>6</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>6</v>
+      </c>
+      <c r="N22">
+        <v>6</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="P22">
+        <v>6</v>
+      </c>
+      <c r="Q22">
+        <v>5</v>
+      </c>
+      <c r="R22">
+        <v>4</v>
+      </c>
+      <c r="S22">
+        <v>3</v>
+      </c>
+      <c r="T22">
+        <v>6</v>
+      </c>
+      <c r="V22">
+        <v>6</v>
+      </c>
+      <c r="W22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>6</v>
+      </c>
+      <c r="K23">
+        <v>6</v>
+      </c>
+      <c r="L23">
+        <v>6</v>
+      </c>
+      <c r="M23">
+        <v>6</v>
+      </c>
+      <c r="N23">
+        <v>6</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <v>6</v>
+      </c>
+      <c r="Q23">
+        <v>6</v>
+      </c>
+      <c r="R23">
+        <v>4</v>
+      </c>
+      <c r="S23">
+        <v>6</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="W23">
+        <v>6</v>
+      </c>
+      <c r="X23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="J24">
+        <v>6</v>
+      </c>
+      <c r="K24">
+        <v>6</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <v>6</v>
+      </c>
+      <c r="N24">
+        <v>6</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>6</v>
+      </c>
+      <c r="Q24">
+        <v>6</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <v>6</v>
+      </c>
+      <c r="T24">
+        <v>6</v>
+      </c>
+      <c r="V24">
+        <v>6</v>
+      </c>
+      <c r="W24">
+        <v>3</v>
+      </c>
+      <c r="Z24">
+        <v>5</v>
+      </c>
+      <c r="AA24">
+        <v>5</v>
+      </c>
+      <c r="AB24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>6</v>
+      </c>
+      <c r="J25">
+        <v>6</v>
+      </c>
+      <c r="K25">
+        <v>6</v>
+      </c>
+      <c r="L25">
+        <v>6</v>
+      </c>
+      <c r="M25">
+        <v>6</v>
+      </c>
+      <c r="N25">
+        <v>6</v>
+      </c>
+      <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <v>6</v>
+      </c>
+      <c r="Q25">
+        <v>5</v>
+      </c>
+      <c r="R25">
+        <v>4</v>
+      </c>
+      <c r="S25">
+        <v>6</v>
+      </c>
+      <c r="T25">
+        <v>6</v>
+      </c>
+      <c r="V25">
+        <v>6</v>
+      </c>
+      <c r="W25">
+        <v>6</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>3</v>
+      </c>
+      <c r="AA25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>6</v>
+      </c>
+      <c r="J26">
+        <v>6</v>
+      </c>
+      <c r="K26">
+        <v>6</v>
+      </c>
+      <c r="L26">
+        <v>6</v>
+      </c>
+      <c r="M26">
+        <v>6</v>
+      </c>
+      <c r="N26">
+        <v>6</v>
+      </c>
+      <c r="O26">
+        <v>6</v>
+      </c>
+      <c r="P26">
+        <v>6</v>
+      </c>
+      <c r="Q26">
+        <v>6</v>
+      </c>
+      <c r="R26">
+        <v>5</v>
+      </c>
+      <c r="S26">
+        <v>6</v>
+      </c>
+      <c r="T26">
+        <v>6</v>
+      </c>
+      <c r="V26">
+        <v>6</v>
+      </c>
+      <c r="W26">
+        <v>4</v>
+      </c>
+      <c r="X26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>6</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27">
+        <v>3</v>
+      </c>
+      <c r="P27">
+        <v>6</v>
+      </c>
+      <c r="Q27">
+        <v>6</v>
+      </c>
+      <c r="R27">
+        <v>5</v>
+      </c>
+      <c r="S27">
+        <v>6</v>
+      </c>
+      <c r="T27">
+        <v>6</v>
+      </c>
+      <c r="W27">
+        <v>4</v>
+      </c>
+      <c r="X27">
+        <v>6</v>
+      </c>
+      <c r="Y27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
+      </c>
+      <c r="K28">
+        <v>6</v>
+      </c>
+      <c r="L28">
+        <v>6</v>
+      </c>
+      <c r="M28">
+        <v>6</v>
+      </c>
+      <c r="N28">
+        <v>6</v>
+      </c>
+      <c r="O28">
+        <v>6</v>
+      </c>
+      <c r="P28">
+        <v>6</v>
+      </c>
+      <c r="Q28">
+        <v>6</v>
+      </c>
+      <c r="R28">
+        <v>6</v>
+      </c>
+      <c r="S28">
+        <v>3</v>
+      </c>
+      <c r="T28">
+        <v>6</v>
+      </c>
+      <c r="V28">
+        <v>6</v>
+      </c>
+      <c r="W28">
+        <v>6</v>
+      </c>
+      <c r="X28">
+        <v>4</v>
+      </c>
+      <c r="Y28">
+        <v>2</v>
+      </c>
+      <c r="Z28">
+        <v>2</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
+      </c>
+      <c r="K29">
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <v>6</v>
+      </c>
+      <c r="M29">
+        <v>6</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="P29">
+        <v>6</v>
+      </c>
+      <c r="Q29">
+        <v>6</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <v>6</v>
+      </c>
+      <c r="T29">
+        <v>6</v>
+      </c>
+      <c r="V29">
+        <v>6</v>
+      </c>
+      <c r="Z29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>6</v>
+      </c>
+      <c r="L30">
+        <v>6</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>6</v>
+      </c>
+      <c r="P30">
+        <v>6</v>
+      </c>
+      <c r="Q30">
+        <v>6</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>3</v>
+      </c>
+      <c r="T30">
+        <v>6</v>
+      </c>
+      <c r="W30">
+        <v>2</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>6</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="K31">
+        <v>6</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
+      <c r="M31">
+        <v>6</v>
+      </c>
+      <c r="N31">
+        <v>6</v>
+      </c>
+      <c r="O31">
+        <v>3</v>
+      </c>
+      <c r="P31">
+        <v>6</v>
+      </c>
+      <c r="Q31">
+        <v>6</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>6</v>
+      </c>
+      <c r="T31">
+        <v>6</v>
+      </c>
+      <c r="V31">
+        <v>6</v>
+      </c>
+      <c r="W31">
+        <v>4</v>
+      </c>
+      <c r="X31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>6</v>
+      </c>
+      <c r="J32">
+        <v>6</v>
+      </c>
+      <c r="K32">
+        <v>6</v>
+      </c>
+      <c r="L32">
+        <v>6</v>
+      </c>
+      <c r="M32">
+        <v>6</v>
+      </c>
+      <c r="N32">
+        <v>6</v>
+      </c>
+      <c r="O32">
+        <v>3</v>
+      </c>
+      <c r="P32">
+        <v>6</v>
+      </c>
+      <c r="Q32">
+        <v>6</v>
+      </c>
+      <c r="R32">
+        <v>5</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>6</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <v>6</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>4</v>
+      </c>
+      <c r="Y32">
+        <v>2</v>
+      </c>
+      <c r="Z32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="A33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>6</v>
+      </c>
+      <c r="K33">
+        <v>6</v>
+      </c>
+      <c r="L33">
+        <v>5</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>6</v>
+      </c>
+      <c r="O33">
+        <v>5</v>
+      </c>
+      <c r="P33">
+        <v>6</v>
+      </c>
+      <c r="Q33">
+        <v>5</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>6</v>
+      </c>
+      <c r="T33">
+        <v>6</v>
+      </c>
+      <c r="W33">
+        <v>2</v>
+      </c>
+      <c r="X33">
+        <v>4</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34">
+        <v>6</v>
+      </c>
+      <c r="J34">
+        <v>6</v>
+      </c>
+      <c r="K34">
+        <v>6</v>
+      </c>
+      <c r="L34">
+        <v>5</v>
+      </c>
+      <c r="M34">
+        <v>6</v>
+      </c>
+      <c r="N34">
+        <v>6</v>
+      </c>
+      <c r="O34">
+        <v>4</v>
+      </c>
+      <c r="P34">
+        <v>6</v>
+      </c>
+      <c r="Q34">
+        <v>6</v>
+      </c>
+      <c r="R34">
+        <v>5</v>
+      </c>
+      <c r="S34">
+        <v>6</v>
+      </c>
+      <c r="T34">
+        <v>6</v>
+      </c>
+      <c r="V34">
+        <v>6</v>
+      </c>
+      <c r="W34">
+        <v>6</v>
+      </c>
+      <c r="X34">
+        <v>5</v>
+      </c>
+      <c r="AA34">
+        <v>5</v>
+      </c>
+      <c r="AB34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <v>6</v>
+      </c>
+      <c r="K35">
+        <v>6</v>
+      </c>
+      <c r="L35">
+        <v>5</v>
+      </c>
+      <c r="M35">
+        <v>6</v>
+      </c>
+      <c r="N35">
+        <v>6</v>
+      </c>
+      <c r="O35">
+        <v>4</v>
+      </c>
+      <c r="P35">
+        <v>6</v>
+      </c>
+      <c r="Q35">
+        <v>6</v>
+      </c>
+      <c r="R35">
+        <v>5</v>
+      </c>
+      <c r="S35">
+        <v>6</v>
+      </c>
+      <c r="T35">
+        <v>6</v>
+      </c>
+      <c r="V35">
+        <v>6</v>
+      </c>
+      <c r="W35">
+        <v>5</v>
+      </c>
+      <c r="Y35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>6</v>
+      </c>
+      <c r="J36">
+        <v>6</v>
+      </c>
+      <c r="K36">
+        <v>6</v>
+      </c>
+      <c r="L36">
+        <v>6</v>
+      </c>
+      <c r="M36">
+        <v>6</v>
+      </c>
+      <c r="N36">
+        <v>6</v>
+      </c>
+      <c r="O36">
+        <v>6</v>
+      </c>
+      <c r="P36">
+        <v>6</v>
+      </c>
+      <c r="Q36">
+        <v>6</v>
+      </c>
+      <c r="R36">
+        <v>6</v>
+      </c>
+      <c r="S36">
+        <v>6</v>
+      </c>
+      <c r="T36">
+        <v>6</v>
+      </c>
+      <c r="U36">
+        <v>6</v>
+      </c>
+      <c r="V36">
+        <v>6</v>
+      </c>
+      <c r="W36">
+        <v>3</v>
+      </c>
+      <c r="X36">
+        <v>6</v>
+      </c>
+      <c r="Y36">
+        <v>6</v>
+      </c>
+      <c r="Z36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+      <c r="K37">
+        <v>6</v>
+      </c>
+      <c r="L37">
+        <v>5</v>
+      </c>
+      <c r="M37">
+        <v>6</v>
+      </c>
+      <c r="N37">
+        <v>6</v>
+      </c>
+      <c r="O37">
+        <v>3</v>
+      </c>
+      <c r="P37">
+        <v>6</v>
+      </c>
+      <c r="Q37">
+        <v>6</v>
+      </c>
+      <c r="R37">
+        <v>4</v>
+      </c>
+      <c r="S37">
+        <v>5</v>
+      </c>
+      <c r="T37">
+        <v>6</v>
+      </c>
+      <c r="U37">
+        <v>2</v>
+      </c>
+      <c r="V37">
+        <v>5</v>
+      </c>
+      <c r="W37">
+        <v>2</v>
+      </c>
+      <c r="X37">
+        <v>2</v>
+      </c>
+      <c r="Z37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>6</v>
+      </c>
+      <c r="J38">
+        <v>6</v>
+      </c>
+      <c r="K38">
+        <v>6</v>
+      </c>
+      <c r="L38">
+        <v>5</v>
+      </c>
+      <c r="M38">
+        <v>5</v>
+      </c>
+      <c r="N38">
+        <v>6</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+      <c r="P38">
+        <v>6</v>
+      </c>
+      <c r="Q38">
+        <v>6</v>
+      </c>
+      <c r="R38">
+        <v>4</v>
+      </c>
+      <c r="S38">
+        <v>6</v>
+      </c>
+      <c r="T38">
+        <v>6</v>
+      </c>
+      <c r="U38">
+        <v>4</v>
+      </c>
+      <c r="V38">
+        <v>6</v>
+      </c>
+      <c r="W38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39">
+        <v>6</v>
+      </c>
+      <c r="H39">
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <v>6</v>
+      </c>
+      <c r="J39">
+        <v>6</v>
+      </c>
+      <c r="K39">
+        <v>6</v>
+      </c>
+      <c r="L39">
+        <v>6</v>
+      </c>
+      <c r="M39">
+        <v>6</v>
+      </c>
+      <c r="N39">
+        <v>6</v>
+      </c>
+      <c r="O39">
+        <v>6</v>
+      </c>
+      <c r="P39">
+        <v>6</v>
+      </c>
+      <c r="Q39">
+        <v>6</v>
+      </c>
+      <c r="R39">
+        <v>6</v>
+      </c>
+      <c r="S39">
+        <v>5</v>
+      </c>
+      <c r="T39">
+        <v>5</v>
+      </c>
+      <c r="V39">
+        <v>6</v>
+      </c>
+      <c r="W39">
+        <v>4</v>
+      </c>
+      <c r="X39">
+        <v>6</v>
+      </c>
+      <c r="Z39">
+        <v>4</v>
+      </c>
+      <c r="AA39">
+        <v>2</v>
+      </c>
+      <c r="AB39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>6</v>
+      </c>
+      <c r="K40">
+        <v>6</v>
+      </c>
+      <c r="L40">
+        <v>6</v>
+      </c>
+      <c r="M40">
+        <v>6</v>
+      </c>
+      <c r="N40">
+        <v>6</v>
+      </c>
+      <c r="O40">
+        <v>3</v>
+      </c>
+      <c r="P40">
+        <v>6</v>
+      </c>
+      <c r="Q40">
+        <v>6</v>
+      </c>
+      <c r="R40">
+        <v>4</v>
+      </c>
+      <c r="S40">
+        <v>6</v>
+      </c>
+      <c r="T40">
+        <v>6</v>
+      </c>
+      <c r="V40">
+        <v>6</v>
+      </c>
+      <c r="W40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+      <c r="J41">
+        <v>5</v>
+      </c>
+      <c r="K41">
+        <v>6</v>
+      </c>
+      <c r="L41">
+        <v>6</v>
+      </c>
+      <c r="M41">
+        <v>4</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="P41">
+        <v>6</v>
+      </c>
+      <c r="Q41">
+        <v>6</v>
+      </c>
+      <c r="R41">
+        <v>2</v>
+      </c>
+      <c r="S41">
+        <v>5</v>
+      </c>
+      <c r="T41">
+        <v>6</v>
+      </c>
+      <c r="V41">
+        <v>6</v>
+      </c>
+      <c r="W41">
+        <v>4</v>
+      </c>
+      <c r="X41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="A42" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>6</v>
+      </c>
+      <c r="L42">
+        <v>5</v>
+      </c>
+      <c r="M42">
+        <v>4</v>
+      </c>
+      <c r="N42">
+        <v>4</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>6</v>
+      </c>
+      <c r="Q42">
+        <v>6</v>
+      </c>
+      <c r="R42">
+        <v>4</v>
+      </c>
+      <c r="S42">
+        <v>5</v>
+      </c>
+      <c r="T42">
+        <v>6</v>
+      </c>
+      <c r="V42">
+        <v>6</v>
+      </c>
+      <c r="W42">
+        <v>3</v>
+      </c>
+      <c r="X42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="A43" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>6</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43">
+        <v>6</v>
+      </c>
+      <c r="K43">
+        <v>6</v>
+      </c>
+      <c r="L43">
+        <v>6</v>
+      </c>
+      <c r="M43">
+        <v>6</v>
+      </c>
+      <c r="N43">
+        <v>5</v>
+      </c>
+      <c r="P43">
+        <v>6</v>
+      </c>
+      <c r="Q43">
+        <v>6</v>
+      </c>
+      <c r="R43">
+        <v>5</v>
+      </c>
+      <c r="S43">
+        <v>3</v>
+      </c>
+      <c r="T43">
+        <v>4</v>
+      </c>
+      <c r="V43">
+        <v>6</v>
+      </c>
+      <c r="W43">
+        <v>5</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA89F10-9A9F-4866-B751-5D40159755C1}">
+  <dimension ref="A1:AJ44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC35" sqref="AC35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:36">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>4</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>6</v>
+      </c>
+      <c r="J1">
+        <v>7</v>
+      </c>
+      <c r="K1">
+        <v>8</v>
+      </c>
+      <c r="L1">
+        <v>9</v>
+      </c>
+      <c r="M1">
+        <v>10</v>
+      </c>
+      <c r="N1">
+        <v>11</v>
+      </c>
+      <c r="O1">
+        <v>12</v>
+      </c>
+      <c r="P1">
+        <v>13</v>
+      </c>
+      <c r="Q1">
+        <v>14</v>
+      </c>
+      <c r="R1">
+        <v>15</v>
+      </c>
+      <c r="S1">
+        <v>16</v>
+      </c>
+      <c r="T1">
+        <v>17</v>
+      </c>
+      <c r="U1">
+        <v>18</v>
+      </c>
+      <c r="V1">
+        <v>19</v>
+      </c>
+      <c r="W1">
+        <v>20</v>
+      </c>
+      <c r="X1">
+        <v>21</v>
+      </c>
+      <c r="Y1">
+        <v>22</v>
+      </c>
+      <c r="Z1">
+        <v>23</v>
+      </c>
+      <c r="AA1">
+        <v>24</v>
+      </c>
+      <c r="AB1">
+        <v>25</v>
+      </c>
+      <c r="AC1">
+        <v>26</v>
+      </c>
+      <c r="AD1">
+        <v>27</v>
+      </c>
+      <c r="AE1">
+        <v>28</v>
+      </c>
+      <c r="AF1">
+        <v>29</v>
+      </c>
+      <c r="AG1">
+        <v>30</v>
+      </c>
+      <c r="AH1">
+        <v>31</v>
+      </c>
+      <c r="AI1">
+        <v>32</v>
+      </c>
+      <c r="AJ1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>3</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>2</v>
+      </c>
+      <c r="Y2">
+        <v>2</v>
+      </c>
+      <c r="Z2">
+        <v>3</v>
+      </c>
+      <c r="AA2">
+        <v>2</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>2</v>
+      </c>
+      <c r="AD2">
+        <v>3</v>
+      </c>
+      <c r="AE2">
+        <v>2</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>2</v>
+      </c>
+      <c r="AH2">
+        <v>2</v>
+      </c>
+      <c r="AI2">
+        <v>2</v>
+      </c>
+      <c r="AJ2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <v>6</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <v>6</v>
+      </c>
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="Y3">
+        <v>6</v>
+      </c>
+      <c r="Z3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>5</v>
+      </c>
+      <c r="W4">
+        <v>6</v>
+      </c>
+      <c r="Y4">
+        <v>4</v>
+      </c>
+      <c r="Z4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <v>6</v>
+      </c>
+      <c r="T5">
+        <v>6</v>
+      </c>
+      <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <v>6</v>
+      </c>
+      <c r="W5">
+        <v>6</v>
+      </c>
+      <c r="X5">
+        <v>6</v>
+      </c>
+      <c r="Y5">
+        <v>6</v>
+      </c>
+      <c r="Z5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>6</v>
+      </c>
+      <c r="S10">
+        <v>6</v>
+      </c>
+      <c r="Y10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <v>6</v>
+      </c>
+      <c r="N12">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>6</v>
+      </c>
+      <c r="M13">
+        <v>6</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>6</v>
+      </c>
+      <c r="L14">
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <v>6</v>
+      </c>
+      <c r="P14">
+        <v>5</v>
+      </c>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+      <c r="R14">
+        <v>6</v>
+      </c>
+      <c r="S14">
+        <v>5</v>
+      </c>
+      <c r="T14">
+        <v>5</v>
+      </c>
+      <c r="U14">
+        <v>5</v>
+      </c>
+      <c r="V14">
+        <v>6</v>
+      </c>
+      <c r="W14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>6</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <v>4</v>
+      </c>
+      <c r="W15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>6</v>
+      </c>
+      <c r="M16">
+        <v>6</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <v>6</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>4</v>
+      </c>
+      <c r="U17">
+        <v>4</v>
+      </c>
+      <c r="V17">
+        <v>4</v>
+      </c>
+      <c r="W17">
+        <v>3</v>
+      </c>
+      <c r="X17">
+        <v>3</v>
+      </c>
+      <c r="AA17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>6</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <v>6</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <v>6</v>
+      </c>
+      <c r="U18">
+        <v>4</v>
+      </c>
+      <c r="V18">
+        <v>3</v>
+      </c>
+      <c r="W18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>6</v>
+      </c>
+      <c r="O19">
+        <v>6</v>
+      </c>
+      <c r="P19">
+        <v>3</v>
+      </c>
+      <c r="T19">
+        <v>6</v>
+      </c>
+      <c r="U19">
+        <v>4</v>
+      </c>
+      <c r="V19">
+        <v>5</v>
+      </c>
+      <c r="X19">
+        <v>3</v>
+      </c>
+      <c r="Y19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>6</v>
+      </c>
+      <c r="M20">
+        <v>6</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+      <c r="Y20">
+        <v>6</v>
+      </c>
+      <c r="AH20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
+      <c r="A21" t="s">
         <v>62</v>
       </c>
       <c r="B21" t="s">
@@ -3351,8 +6162,38 @@
       <c r="C21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <v>6</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -3368,34 +6209,28 @@
       <c r="E22">
         <v>6</v>
       </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
       <c r="H22">
         <v>6</v>
       </c>
       <c r="I22">
-        <v>5</v>
-      </c>
-      <c r="J22">
         <v>6</v>
       </c>
       <c r="K22">
         <v>3</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M22">
-        <v>6</v>
-      </c>
-      <c r="N22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O22">
-        <v>3</v>
-      </c>
-      <c r="P22">
-        <v>6</v>
-      </c>
-      <c r="Q22">
         <v>6</v>
       </c>
       <c r="R22">
@@ -3404,20 +6239,17 @@
       <c r="S22">
         <v>6</v>
       </c>
-      <c r="T22">
-        <v>6</v>
-      </c>
       <c r="U22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -3428,64 +6260,70 @@
         <v>8</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>3</v>
-      </c>
-      <c r="J23">
-        <v>6</v>
-      </c>
-      <c r="K23">
-        <v>6</v>
-      </c>
-      <c r="L23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M23">
         <v>6</v>
       </c>
       <c r="N23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T23">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="U23">
+        <v>4</v>
       </c>
       <c r="V23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28">
+        <v>6</v>
+      </c>
+      <c r="Y23">
+        <v>3</v>
+      </c>
+      <c r="Z23">
+        <v>6</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -3499,25 +6337,25 @@
         <v>6</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H24">
         <v>6</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L24">
         <v>6</v>
@@ -3529,31 +6367,31 @@
         <v>6</v>
       </c>
       <c r="O24">
-        <v>3</v>
-      </c>
-      <c r="P24">
-        <v>6</v>
-      </c>
-      <c r="Q24">
         <v>6</v>
       </c>
       <c r="R24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S24">
         <v>6</v>
       </c>
       <c r="T24">
-        <v>3</v>
-      </c>
-      <c r="W24">
-        <v>6</v>
-      </c>
-      <c r="X24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28">
+        <v>4</v>
+      </c>
+      <c r="U24">
+        <v>6</v>
+      </c>
+      <c r="V24">
+        <v>4</v>
+      </c>
+      <c r="AG24">
+        <v>6</v>
+      </c>
+      <c r="AH24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -3564,22 +6402,19 @@
         <v>8</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J25">
         <v>6</v>
@@ -3588,49 +6423,31 @@
         <v>6</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M25">
         <v>6</v>
       </c>
-      <c r="N25">
-        <v>6</v>
-      </c>
-      <c r="O25">
-        <v>3</v>
-      </c>
       <c r="P25">
-        <v>6</v>
-      </c>
-      <c r="Q25">
-        <v>6</v>
-      </c>
-      <c r="R25">
         <v>4</v>
       </c>
       <c r="S25">
         <v>6</v>
       </c>
       <c r="T25">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="U25">
+        <v>3</v>
       </c>
       <c r="V25">
-        <v>6</v>
-      </c>
-      <c r="W25">
-        <v>3</v>
-      </c>
-      <c r="Z25">
-        <v>5</v>
-      </c>
-      <c r="AA25">
-        <v>5</v>
-      </c>
-      <c r="AB25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28">
+        <v>3</v>
+      </c>
+      <c r="AH25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -3646,14 +6463,20 @@
       <c r="E26">
         <v>6</v>
       </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
       <c r="G26">
         <v>3</v>
       </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
       <c r="I26">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K26">
         <v>6</v>
@@ -3664,44 +6487,38 @@
       <c r="M26">
         <v>6</v>
       </c>
-      <c r="N26">
-        <v>6</v>
-      </c>
       <c r="O26">
-        <v>3</v>
-      </c>
-      <c r="P26">
         <v>6</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S26">
         <v>6</v>
       </c>
       <c r="T26">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="U26">
+        <v>3</v>
       </c>
       <c r="V26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W26">
         <v>6</v>
       </c>
-      <c r="X26">
-        <v>1</v>
-      </c>
-      <c r="Y26">
-        <v>3</v>
-      </c>
-      <c r="AA26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28">
+      <c r="Z26">
+        <v>3</v>
+      </c>
+      <c r="AB26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -3721,7 +6538,7 @@
         <v>5</v>
       </c>
       <c r="G27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H27">
         <v>6</v>
@@ -3742,37 +6559,43 @@
         <v>6</v>
       </c>
       <c r="N27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O27">
         <v>6</v>
       </c>
       <c r="P27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q27">
         <v>6</v>
       </c>
       <c r="R27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S27">
         <v>6</v>
       </c>
       <c r="T27">
+        <v>4</v>
+      </c>
+      <c r="U27">
         <v>6</v>
       </c>
       <c r="V27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W27">
-        <v>4</v>
-      </c>
-      <c r="X27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28">
+        <v>6</v>
+      </c>
+      <c r="Y27">
+        <v>3</v>
+      </c>
+      <c r="Z27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -3786,64 +6609,58 @@
         <v>6</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
       <c r="H28">
         <v>6</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K28">
         <v>6</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N28">
-        <v>3</v>
-      </c>
-      <c r="O28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T28">
-        <v>6</v>
-      </c>
-      <c r="W28">
-        <v>4</v>
-      </c>
-      <c r="X28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>3</v>
+      </c>
+      <c r="AH28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -3860,22 +6677,22 @@
         <v>6</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H29">
         <v>6</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J29">
         <v>6</v>
       </c>
       <c r="K29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L29">
         <v>6</v>
@@ -3890,40 +6707,46 @@
         <v>6</v>
       </c>
       <c r="P29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R29">
         <v>6</v>
       </c>
       <c r="S29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T29">
+        <v>5</v>
+      </c>
+      <c r="U29">
         <v>6</v>
       </c>
       <c r="V29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W29">
         <v>6</v>
       </c>
-      <c r="X29">
-        <v>4</v>
-      </c>
       <c r="Y29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Z29">
-        <v>2</v>
-      </c>
-      <c r="AB29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28">
+        <v>6</v>
+      </c>
+      <c r="AE29">
+        <v>6</v>
+      </c>
+      <c r="AF29">
+        <v>6</v>
+      </c>
+      <c r="AG29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -3940,22 +6763,22 @@
         <v>6</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>6</v>
@@ -3964,34 +6787,46 @@
         <v>6</v>
       </c>
       <c r="N30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P30">
-        <v>6</v>
-      </c>
-      <c r="Q30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S30">
         <v>6</v>
       </c>
       <c r="T30">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="U30">
+        <v>4</v>
       </c>
       <c r="V30">
+        <v>5</v>
+      </c>
+      <c r="W30">
+        <v>6</v>
+      </c>
+      <c r="X30">
+        <v>6</v>
+      </c>
+      <c r="Y30">
         <v>6</v>
       </c>
       <c r="Z30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28">
+        <v>4</v>
+      </c>
+      <c r="AB30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -4008,16 +6843,19 @@
         <v>6</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K31">
         <v>6</v>
@@ -4026,34 +6864,22 @@
         <v>6</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N31">
-        <v>6</v>
-      </c>
-      <c r="P31">
-        <v>6</v>
-      </c>
-      <c r="Q31">
-        <v>6</v>
-      </c>
-      <c r="R31">
-        <v>1</v>
-      </c>
-      <c r="S31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T31">
-        <v>6</v>
-      </c>
-      <c r="W31">
-        <v>2</v>
-      </c>
-      <c r="X31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28">
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <v>4</v>
+      </c>
+      <c r="V31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -4070,7 +6896,7 @@
         <v>6</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -4079,13 +6905,13 @@
         <v>4</v>
       </c>
       <c r="I32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L32">
         <v>5</v>
@@ -4094,37 +6920,40 @@
         <v>6</v>
       </c>
       <c r="N32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O32">
-        <v>3</v>
-      </c>
-      <c r="P32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q32">
         <v>6</v>
       </c>
       <c r="R32">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S32">
         <v>6</v>
       </c>
       <c r="T32">
+        <v>4</v>
+      </c>
+      <c r="U32">
         <v>6</v>
       </c>
       <c r="V32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W32">
-        <v>4</v>
-      </c>
-      <c r="X32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28">
+        <v>6</v>
+      </c>
+      <c r="Y32">
+        <v>6</v>
+      </c>
+      <c r="Z32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -4138,28 +6967,28 @@
         <v>6</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J33">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K33">
         <v>6</v>
       </c>
       <c r="L33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M33">
         <v>6</v>
@@ -4167,44 +6996,38 @@
       <c r="N33">
         <v>6</v>
       </c>
-      <c r="O33">
-        <v>3</v>
-      </c>
       <c r="P33">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q33">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R33">
         <v>5</v>
       </c>
-      <c r="S33">
-        <v>2</v>
-      </c>
       <c r="T33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W33">
-        <v>1</v>
-      </c>
-      <c r="X33">
-        <v>4</v>
-      </c>
-      <c r="Y33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28">
+        <v>3</v>
+      </c>
+      <c r="AA33">
+        <v>6</v>
+      </c>
+      <c r="AB33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34">
       <c r="A34" t="s">
         <v>99</v>
       </c>
@@ -4221,58 +7044,25 @@
         <v>6</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>2</v>
-      </c>
-      <c r="J34">
-        <v>6</v>
-      </c>
-      <c r="K34">
-        <v>6</v>
-      </c>
-      <c r="L34">
         <v>5</v>
       </c>
       <c r="M34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N34">
-        <v>6</v>
-      </c>
-      <c r="O34">
-        <v>5</v>
-      </c>
-      <c r="P34">
-        <v>6</v>
-      </c>
-      <c r="Q34">
-        <v>5</v>
-      </c>
-      <c r="R34">
-        <v>2</v>
-      </c>
-      <c r="S34">
-        <v>6</v>
-      </c>
-      <c r="T34">
-        <v>6</v>
-      </c>
-      <c r="W34">
-        <v>2</v>
-      </c>
-      <c r="X34">
-        <v>4</v>
-      </c>
-      <c r="Y34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -4283,16 +7073,16 @@
         <v>8</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35">
         <v>6</v>
@@ -4307,7 +7097,7 @@
         <v>6</v>
       </c>
       <c r="L35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M35">
         <v>6</v>
@@ -4316,16 +7106,16 @@
         <v>6</v>
       </c>
       <c r="O35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q35">
         <v>6</v>
       </c>
       <c r="R35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S35">
         <v>6</v>
@@ -4333,6 +7123,9 @@
       <c r="T35">
         <v>6</v>
       </c>
+      <c r="U35">
+        <v>6</v>
+      </c>
       <c r="V35">
         <v>6</v>
       </c>
@@ -4340,16 +7133,16 @@
         <v>6</v>
       </c>
       <c r="X35">
-        <v>5</v>
-      </c>
-      <c r="AA35">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="Y35">
+        <v>6</v>
       </c>
       <c r="AB35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -4360,64 +7153,67 @@
         <v>8</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F36">
-        <v>3</v>
-      </c>
-      <c r="G36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
         <v>4</v>
       </c>
       <c r="J36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K36">
         <v>6</v>
       </c>
       <c r="L36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M36">
         <v>6</v>
       </c>
       <c r="N36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O36">
-        <v>4</v>
-      </c>
-      <c r="P36">
         <v>6</v>
       </c>
       <c r="Q36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R36">
         <v>5</v>
       </c>
-      <c r="S36">
-        <v>6</v>
-      </c>
       <c r="T36">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="U36">
+        <v>5</v>
       </c>
       <c r="V36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W36">
-        <v>5</v>
-      </c>
-      <c r="Y36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28">
+        <v>6</v>
+      </c>
+      <c r="X36">
+        <v>4</v>
+      </c>
+      <c r="Z36">
+        <v>2</v>
+      </c>
+      <c r="AB36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34">
       <c r="A37" t="s">
         <v>108</v>
       </c>
@@ -4431,16 +7227,16 @@
         <v>6</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I37">
         <v>6</v>
@@ -4464,10 +7260,7 @@
         <v>6</v>
       </c>
       <c r="P37">
-        <v>6</v>
-      </c>
-      <c r="Q37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R37">
         <v>6</v>
@@ -4482,7 +7275,7 @@
         <v>6</v>
       </c>
       <c r="V37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W37">
         <v>3</v>
@@ -4491,13 +7284,28 @@
         <v>6</v>
       </c>
       <c r="Y37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28">
+        <v>2</v>
+      </c>
+      <c r="AA37">
+        <v>6</v>
+      </c>
+      <c r="AB37">
+        <v>2</v>
+      </c>
+      <c r="AE37">
+        <v>3</v>
+      </c>
+      <c r="AF37">
+        <v>6</v>
+      </c>
+      <c r="AH37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -4508,28 +7316,31 @@
         <v>8</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J38">
         <v>5</v>
       </c>
       <c r="K38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M38">
         <v>6</v>
@@ -4538,40 +7349,31 @@
         <v>6</v>
       </c>
       <c r="O38">
-        <v>3</v>
-      </c>
-      <c r="P38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q38">
         <v>6</v>
       </c>
       <c r="R38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U38">
-        <v>2</v>
-      </c>
-      <c r="V38">
-        <v>5</v>
-      </c>
-      <c r="W38">
-        <v>2</v>
-      </c>
-      <c r="X38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28">
+        <v>4</v>
+      </c>
+      <c r="AB38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34">
       <c r="A39" t="s">
         <v>114</v>
       </c>
@@ -4582,16 +7384,19 @@
         <v>8</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E39">
         <v>6</v>
       </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
       <c r="G39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I39">
         <v>6</v>
@@ -4603,43 +7408,40 @@
         <v>6</v>
       </c>
       <c r="L39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N39">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P39">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q39">
         <v>6</v>
       </c>
       <c r="R39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S39">
         <v>6</v>
       </c>
-      <c r="T39">
-        <v>6</v>
-      </c>
-      <c r="U39">
-        <v>4</v>
-      </c>
-      <c r="V39">
-        <v>6</v>
-      </c>
-      <c r="W39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28">
+      <c r="Y39">
+        <v>6</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+      <c r="AF39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34">
       <c r="A40" t="s">
         <v>117</v>
       </c>
@@ -4656,10 +7458,10 @@
         <v>6</v>
       </c>
       <c r="F40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G40">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H40">
         <v>6</v>
@@ -4686,7 +7488,7 @@
         <v>6</v>
       </c>
       <c r="P40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -4695,31 +7497,34 @@
         <v>6</v>
       </c>
       <c r="S40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T40">
+        <v>6</v>
+      </c>
+      <c r="U40">
         <v>5</v>
       </c>
       <c r="V40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W40">
-        <v>4</v>
-      </c>
-      <c r="X40">
         <v>6</v>
       </c>
       <c r="Z40">
         <v>4</v>
       </c>
-      <c r="AA40">
-        <v>2</v>
-      </c>
       <c r="AB40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:28">
+      <c r="AE40">
+        <v>6</v>
+      </c>
+      <c r="AF40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34">
       <c r="A41" t="s">
         <v>120</v>
       </c>
@@ -4730,61 +7535,58 @@
         <v>8</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E41">
         <v>6</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
       </c>
       <c r="I41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J41">
-        <v>6</v>
-      </c>
-      <c r="K41">
-        <v>6</v>
-      </c>
-      <c r="L41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M41">
         <v>6</v>
       </c>
       <c r="N41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S41">
         <v>6</v>
       </c>
       <c r="T41">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="U41">
+        <v>5</v>
       </c>
       <c r="V41">
-        <v>6</v>
-      </c>
-      <c r="W41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34">
       <c r="A42" t="s">
         <v>123</v>
       </c>
@@ -4795,13 +7597,13 @@
         <v>8</v>
       </c>
       <c r="D42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4813,46 +7615,43 @@
         <v>6</v>
       </c>
       <c r="J42">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L42">
         <v>6</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N42">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="O42">
+        <v>6</v>
       </c>
       <c r="P42">
-        <v>6</v>
-      </c>
-      <c r="Q42">
-        <v>6</v>
-      </c>
-      <c r="R42">
-        <v>2</v>
-      </c>
-      <c r="S42">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T42">
         <v>6</v>
       </c>
+      <c r="U42">
+        <v>4</v>
+      </c>
       <c r="V42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W42">
-        <v>4</v>
-      </c>
-      <c r="X42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28">
+        <v>6</v>
+      </c>
+      <c r="Z42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34">
       <c r="A43" t="s">
         <v>126</v>
       </c>
@@ -4863,55 +7662,46 @@
         <v>8</v>
       </c>
       <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
         <v>3</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J43">
         <v>2</v>
       </c>
       <c r="K43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M43">
-        <v>4</v>
-      </c>
-      <c r="N43">
-        <v>4</v>
-      </c>
-      <c r="O43">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P43">
-        <v>6</v>
-      </c>
-      <c r="Q43">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R43">
-        <v>4</v>
-      </c>
-      <c r="S43">
-        <v>5</v>
-      </c>
-      <c r="T43">
-        <v>6</v>
-      </c>
-      <c r="V43">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W43">
-        <v>3</v>
-      </c>
-      <c r="X43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28">
+        <v>6</v>
+      </c>
+      <c r="AH43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34">
       <c r="A44" s="2" t="s">
         <v>129</v>
       </c>
@@ -4922,22 +7712,22 @@
         <v>8</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H44">
         <v>6</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J44">
         <v>6</v>
@@ -4952,34 +7742,3288 @@
         <v>6</v>
       </c>
       <c r="N44">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="O44">
+        <v>6</v>
       </c>
       <c r="P44">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q44">
         <v>6</v>
       </c>
       <c r="R44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S44">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T44">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="U44">
+        <v>5</v>
       </c>
       <c r="V44">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W44">
-        <v>5</v>
-      </c>
-      <c r="X44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Z44">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="AF44">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADF1034-A924-4416-8577-454E0C8AC375}">
+  <dimension ref="A1:AM41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R15" sqref="R15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:39">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>4</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>6</v>
+      </c>
+      <c r="J1">
+        <v>7</v>
+      </c>
+      <c r="K1">
+        <v>8</v>
+      </c>
+      <c r="L1">
+        <v>9</v>
+      </c>
+      <c r="M1">
+        <v>10</v>
+      </c>
+      <c r="N1">
+        <v>11</v>
+      </c>
+      <c r="O1">
+        <v>12</v>
+      </c>
+      <c r="P1">
+        <v>13</v>
+      </c>
+      <c r="Q1">
+        <v>14</v>
+      </c>
+      <c r="R1">
+        <v>15</v>
+      </c>
+      <c r="S1">
+        <v>16</v>
+      </c>
+      <c r="T1">
+        <v>17</v>
+      </c>
+      <c r="U1">
+        <v>18</v>
+      </c>
+      <c r="V1">
+        <v>19</v>
+      </c>
+      <c r="W1">
+        <v>20</v>
+      </c>
+      <c r="X1">
+        <v>21</v>
+      </c>
+      <c r="Y1">
+        <v>22</v>
+      </c>
+      <c r="Z1">
+        <v>23</v>
+      </c>
+      <c r="AA1">
+        <v>24</v>
+      </c>
+      <c r="AB1">
+        <v>25</v>
+      </c>
+      <c r="AC1">
+        <v>26</v>
+      </c>
+      <c r="AD1">
+        <v>27</v>
+      </c>
+      <c r="AE1">
+        <v>28</v>
+      </c>
+      <c r="AF1">
+        <v>29</v>
+      </c>
+      <c r="AG1">
+        <v>30</v>
+      </c>
+      <c r="AH1">
+        <v>31</v>
+      </c>
+      <c r="AI1">
+        <v>32</v>
+      </c>
+      <c r="AJ1">
+        <v>33</v>
+      </c>
+      <c r="AK1">
+        <v>34</v>
+      </c>
+      <c r="AL1">
+        <v>35</v>
+      </c>
+      <c r="AM1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>2</v>
+      </c>
+      <c r="Z2">
+        <v>2</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>2</v>
+      </c>
+      <c r="AE2">
+        <v>2</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>2</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>4</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>3</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>6</v>
+      </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>6</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>6</v>
+      </c>
+      <c r="U3">
+        <v>6</v>
+      </c>
+      <c r="V3">
+        <v>6</v>
+      </c>
+      <c r="W3">
+        <v>6</v>
+      </c>
+      <c r="X3">
+        <v>6</v>
+      </c>
+      <c r="AB3">
+        <v>6</v>
+      </c>
+      <c r="AC3">
+        <v>6</v>
+      </c>
+      <c r="AD3">
+        <v>4</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>6</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>6</v>
+      </c>
+      <c r="U4">
+        <v>6</v>
+      </c>
+      <c r="V4">
+        <v>6</v>
+      </c>
+      <c r="AB4">
+        <v>6</v>
+      </c>
+      <c r="AC4">
+        <v>2</v>
+      </c>
+      <c r="AE4">
+        <v>4</v>
+      </c>
+      <c r="AF4">
+        <v>6</v>
+      </c>
+      <c r="AG4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <v>6</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5">
+        <v>6</v>
+      </c>
+      <c r="U5">
+        <v>6</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>6</v>
+      </c>
+      <c r="X5">
+        <v>2</v>
+      </c>
+      <c r="AB5">
+        <v>6</v>
+      </c>
+      <c r="AC5">
+        <v>6</v>
+      </c>
+      <c r="AE5">
+        <v>4</v>
+      </c>
+      <c r="AF5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>6</v>
+      </c>
+      <c r="U8">
+        <v>6</v>
+      </c>
+      <c r="V8">
+        <v>6</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <v>6</v>
+      </c>
+      <c r="U9">
+        <v>6</v>
+      </c>
+      <c r="V9">
+        <v>6</v>
+      </c>
+      <c r="W9">
+        <v>6</v>
+      </c>
+      <c r="X9">
+        <v>5</v>
+      </c>
+      <c r="AB9">
+        <v>6</v>
+      </c>
+      <c r="AD9">
+        <v>6</v>
+      </c>
+      <c r="AE9">
+        <v>4</v>
+      </c>
+      <c r="AF9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <v>6</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+      <c r="T10">
+        <v>6</v>
+      </c>
+      <c r="U10">
+        <v>6</v>
+      </c>
+      <c r="V10">
+        <v>5</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>6</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>6</v>
+      </c>
+      <c r="T11">
+        <v>6</v>
+      </c>
+      <c r="U11">
+        <v>6</v>
+      </c>
+      <c r="V11">
+        <v>6</v>
+      </c>
+      <c r="AB11">
+        <v>5</v>
+      </c>
+      <c r="AC11">
+        <v>5</v>
+      </c>
+      <c r="AE11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>6</v>
+      </c>
+      <c r="N12">
+        <v>6</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>6</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="AE12">
+        <v>4</v>
+      </c>
+      <c r="AF12">
+        <v>6</v>
+      </c>
+      <c r="AG12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>6</v>
+      </c>
+      <c r="M13">
+        <v>6</v>
+      </c>
+      <c r="N13">
+        <v>6</v>
+      </c>
+      <c r="O13">
+        <v>6</v>
+      </c>
+      <c r="Q13">
+        <v>6</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
+      <c r="S13">
+        <v>6</v>
+      </c>
+      <c r="T13">
+        <v>6</v>
+      </c>
+      <c r="U13">
+        <v>6</v>
+      </c>
+      <c r="AB13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="T14">
+        <v>6</v>
+      </c>
+      <c r="U14">
+        <v>6</v>
+      </c>
+      <c r="V14">
+        <v>6</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>3</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>5</v>
+      </c>
+      <c r="AC14">
+        <v>6</v>
+      </c>
+      <c r="AD14">
+        <v>4</v>
+      </c>
+      <c r="AE14">
+        <v>3</v>
+      </c>
+      <c r="AF14">
+        <v>6</v>
+      </c>
+      <c r="AK14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>6</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>6</v>
+      </c>
+      <c r="V15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <v>6</v>
+      </c>
+      <c r="O16">
+        <v>6</v>
+      </c>
+      <c r="P16">
+        <v>4</v>
+      </c>
+      <c r="T16">
+        <v>6</v>
+      </c>
+      <c r="U16">
+        <v>6</v>
+      </c>
+      <c r="V16">
+        <v>6</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>2</v>
+      </c>
+      <c r="AB16">
+        <v>6</v>
+      </c>
+      <c r="AE16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>6</v>
+      </c>
+      <c r="T17">
+        <v>6</v>
+      </c>
+      <c r="U17">
+        <v>6</v>
+      </c>
+      <c r="V17">
+        <v>6</v>
+      </c>
+      <c r="W17">
+        <v>6</v>
+      </c>
+      <c r="X17">
+        <v>4</v>
+      </c>
+      <c r="AB17">
+        <v>6</v>
+      </c>
+      <c r="AC17">
+        <v>4</v>
+      </c>
+      <c r="AD17">
+        <v>2</v>
+      </c>
+      <c r="AE17">
+        <v>5</v>
+      </c>
+      <c r="AF17">
+        <v>6</v>
+      </c>
+      <c r="AG17">
+        <v>3</v>
+      </c>
+      <c r="AK17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>6</v>
+      </c>
+      <c r="M18">
+        <v>6</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <v>6</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+      <c r="Q18">
+        <v>6</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>6</v>
+      </c>
+      <c r="W18">
+        <v>3</v>
+      </c>
+      <c r="X18">
+        <v>2</v>
+      </c>
+      <c r="AB18">
+        <v>6</v>
+      </c>
+      <c r="AC18">
+        <v>2</v>
+      </c>
+      <c r="AD18">
+        <v>3</v>
+      </c>
+      <c r="AE18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <v>6</v>
+      </c>
+      <c r="M19">
+        <v>6</v>
+      </c>
+      <c r="N19">
+        <v>6</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <v>6</v>
+      </c>
+      <c r="S19">
+        <v>6</v>
+      </c>
+      <c r="T19">
+        <v>6</v>
+      </c>
+      <c r="U19">
+        <v>6</v>
+      </c>
+      <c r="V19">
+        <v>6</v>
+      </c>
+      <c r="W19">
+        <v>6</v>
+      </c>
+      <c r="AB19">
+        <v>6</v>
+      </c>
+      <c r="AC19">
+        <v>5</v>
+      </c>
+      <c r="AD19">
+        <v>4</v>
+      </c>
+      <c r="AE19">
+        <v>4</v>
+      </c>
+      <c r="AF19">
+        <v>6</v>
+      </c>
+      <c r="AG19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>6</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>6</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>6</v>
+      </c>
+      <c r="S20">
+        <v>6</v>
+      </c>
+      <c r="T20">
+        <v>6</v>
+      </c>
+      <c r="U20">
+        <v>6</v>
+      </c>
+      <c r="V20">
+        <v>5</v>
+      </c>
+      <c r="AB20">
+        <v>6</v>
+      </c>
+      <c r="AC20">
+        <v>2</v>
+      </c>
+      <c r="AD20">
+        <v>3</v>
+      </c>
+      <c r="AE20">
+        <v>3</v>
+      </c>
+      <c r="AF20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="L21">
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <v>6</v>
+      </c>
+      <c r="N21">
+        <v>6</v>
+      </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <v>5</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="S21">
+        <v>6</v>
+      </c>
+      <c r="T21">
+        <v>6</v>
+      </c>
+      <c r="U21">
+        <v>6</v>
+      </c>
+      <c r="V21">
+        <v>6</v>
+      </c>
+      <c r="W21">
+        <v>6</v>
+      </c>
+      <c r="X21">
+        <v>2</v>
+      </c>
+      <c r="AA21">
+        <v>6</v>
+      </c>
+      <c r="AB21">
+        <v>6</v>
+      </c>
+      <c r="AE21">
+        <v>4</v>
+      </c>
+      <c r="AF21">
+        <v>6</v>
+      </c>
+      <c r="AG21">
+        <v>6</v>
+      </c>
+      <c r="AK21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <v>6</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <v>6</v>
+      </c>
+      <c r="O22">
+        <v>6</v>
+      </c>
+      <c r="P22">
+        <v>6</v>
+      </c>
+      <c r="Q22">
+        <v>6</v>
+      </c>
+      <c r="S22">
+        <v>6</v>
+      </c>
+      <c r="T22">
+        <v>6</v>
+      </c>
+      <c r="U22">
+        <v>6</v>
+      </c>
+      <c r="V22">
+        <v>6</v>
+      </c>
+      <c r="W22">
+        <v>6</v>
+      </c>
+      <c r="X22">
+        <v>6</v>
+      </c>
+      <c r="AA22">
+        <v>6</v>
+      </c>
+      <c r="AB22">
+        <v>6</v>
+      </c>
+      <c r="AC22">
+        <v>6</v>
+      </c>
+      <c r="AD22">
+        <v>6</v>
+      </c>
+      <c r="AE22">
+        <v>4</v>
+      </c>
+      <c r="AF22">
+        <v>6</v>
+      </c>
+      <c r="AG22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <v>6</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>6</v>
+      </c>
+      <c r="N23">
+        <v>6</v>
+      </c>
+      <c r="O23">
+        <v>6</v>
+      </c>
+      <c r="P23">
+        <v>6</v>
+      </c>
+      <c r="Q23">
+        <v>5</v>
+      </c>
+      <c r="S23">
+        <v>6</v>
+      </c>
+      <c r="T23">
+        <v>6</v>
+      </c>
+      <c r="U23">
+        <v>6</v>
+      </c>
+      <c r="V23">
+        <v>6</v>
+      </c>
+      <c r="W23">
+        <v>6</v>
+      </c>
+      <c r="X23">
+        <v>4</v>
+      </c>
+      <c r="AB23">
+        <v>6</v>
+      </c>
+      <c r="AD23">
+        <v>2</v>
+      </c>
+      <c r="AE23">
+        <v>4</v>
+      </c>
+      <c r="AF23">
+        <v>6</v>
+      </c>
+      <c r="AG23">
+        <v>6</v>
+      </c>
+      <c r="AI23">
+        <v>4</v>
+      </c>
+      <c r="AJ23">
+        <v>1</v>
+      </c>
+      <c r="AK23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="J24">
+        <v>6</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>6</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="P24" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="T24">
+        <v>6</v>
+      </c>
+      <c r="U24">
+        <v>6</v>
+      </c>
+      <c r="V24">
+        <v>6</v>
+      </c>
+      <c r="W24">
+        <v>6</v>
+      </c>
+      <c r="X24">
+        <v>4</v>
+      </c>
+      <c r="AB24">
+        <v>6</v>
+      </c>
+      <c r="AC24">
+        <v>6</v>
+      </c>
+      <c r="AD24">
+        <v>3</v>
+      </c>
+      <c r="AE24">
+        <v>5</v>
+      </c>
+      <c r="AF24">
+        <v>6</v>
+      </c>
+      <c r="AG24">
+        <v>5</v>
+      </c>
+      <c r="AH24">
+        <v>6</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
+      </c>
+      <c r="AJ24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>6</v>
+      </c>
+      <c r="J25">
+        <v>6</v>
+      </c>
+      <c r="K25">
+        <v>6</v>
+      </c>
+      <c r="L25">
+        <v>6</v>
+      </c>
+      <c r="M25">
+        <v>6</v>
+      </c>
+      <c r="N25">
+        <v>6</v>
+      </c>
+      <c r="O25">
+        <v>6</v>
+      </c>
+      <c r="Q25">
+        <v>6</v>
+      </c>
+      <c r="R25">
+        <v>5</v>
+      </c>
+      <c r="T25">
+        <v>6</v>
+      </c>
+      <c r="U25">
+        <v>6</v>
+      </c>
+      <c r="V25">
+        <v>3</v>
+      </c>
+      <c r="W25">
+        <v>6</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>6</v>
+      </c>
+      <c r="AC25">
+        <v>6</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>6</v>
+      </c>
+      <c r="J26">
+        <v>6</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>6</v>
+      </c>
+      <c r="M26">
+        <v>6</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>6</v>
+      </c>
+      <c r="P26">
+        <v>5</v>
+      </c>
+      <c r="Q26">
+        <v>6</v>
+      </c>
+      <c r="T26">
+        <v>6</v>
+      </c>
+      <c r="U26">
+        <v>6</v>
+      </c>
+      <c r="V26">
+        <v>6</v>
+      </c>
+      <c r="W26">
+        <v>6</v>
+      </c>
+      <c r="X26">
+        <v>4</v>
+      </c>
+      <c r="AB26">
+        <v>6</v>
+      </c>
+      <c r="AC26">
+        <v>3</v>
+      </c>
+      <c r="AD26">
+        <v>6</v>
+      </c>
+      <c r="AE26">
+        <v>4</v>
+      </c>
+      <c r="AF26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>6</v>
+      </c>
+      <c r="L27">
+        <v>6</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <v>6</v>
+      </c>
+      <c r="O27">
+        <v>5</v>
+      </c>
+      <c r="P27">
+        <v>6</v>
+      </c>
+      <c r="Q27">
+        <v>6</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>6</v>
+      </c>
+      <c r="T27">
+        <v>6</v>
+      </c>
+      <c r="U27">
+        <v>6</v>
+      </c>
+      <c r="V27">
+        <v>6</v>
+      </c>
+      <c r="W27">
+        <v>4</v>
+      </c>
+      <c r="X27">
+        <v>4</v>
+      </c>
+      <c r="Z27">
+        <v>5</v>
+      </c>
+      <c r="AA27">
+        <v>6</v>
+      </c>
+      <c r="AB27">
+        <v>5</v>
+      </c>
+      <c r="AC27">
+        <v>6</v>
+      </c>
+      <c r="AD27">
+        <v>6</v>
+      </c>
+      <c r="AE27">
+        <v>5</v>
+      </c>
+      <c r="AF27">
+        <v>6</v>
+      </c>
+      <c r="AG27">
+        <v>5</v>
+      </c>
+      <c r="AH27">
+        <v>3</v>
+      </c>
+      <c r="AI27">
+        <v>6</v>
+      </c>
+      <c r="AK27">
+        <v>5</v>
+      </c>
+      <c r="AL27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
+      </c>
+      <c r="K28">
+        <v>6</v>
+      </c>
+      <c r="L28">
+        <v>6</v>
+      </c>
+      <c r="M28">
+        <v>6</v>
+      </c>
+      <c r="N28">
+        <v>5</v>
+      </c>
+      <c r="O28">
+        <v>6</v>
+      </c>
+      <c r="P28">
+        <v>3</v>
+      </c>
+      <c r="Q28">
+        <v>6</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
+      <c r="S28">
+        <v>6</v>
+      </c>
+      <c r="T28">
+        <v>6</v>
+      </c>
+      <c r="U28">
+        <v>6</v>
+      </c>
+      <c r="V28">
+        <v>6</v>
+      </c>
+      <c r="W28">
+        <v>6</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <v>6</v>
+      </c>
+      <c r="AD28">
+        <v>5</v>
+      </c>
+      <c r="AE28">
+        <v>4</v>
+      </c>
+      <c r="AF28">
+        <v>6</v>
+      </c>
+      <c r="AG28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
+      </c>
+      <c r="K29">
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <v>6</v>
+      </c>
+      <c r="M29">
+        <v>6</v>
+      </c>
+      <c r="N29">
+        <v>6</v>
+      </c>
+      <c r="O29">
+        <v>6</v>
+      </c>
+      <c r="P29">
+        <v>6</v>
+      </c>
+      <c r="Q29">
+        <v>6</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <v>6</v>
+      </c>
+      <c r="T29">
+        <v>6</v>
+      </c>
+      <c r="U29">
+        <v>6</v>
+      </c>
+      <c r="V29">
+        <v>6</v>
+      </c>
+      <c r="W29">
+        <v>3</v>
+      </c>
+      <c r="X29">
+        <v>3</v>
+      </c>
+      <c r="AB29">
+        <v>6</v>
+      </c>
+      <c r="AC29">
+        <v>6</v>
+      </c>
+      <c r="AD29">
+        <v>4</v>
+      </c>
+      <c r="AE29">
+        <v>6</v>
+      </c>
+      <c r="AF29">
+        <v>6</v>
+      </c>
+      <c r="AG29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>6</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>5</v>
+      </c>
+      <c r="M30">
+        <v>6</v>
+      </c>
+      <c r="N30">
+        <v>6</v>
+      </c>
+      <c r="O30">
+        <v>5</v>
+      </c>
+      <c r="P30">
+        <v>5</v>
+      </c>
+      <c r="Q30">
+        <v>6</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>6</v>
+      </c>
+      <c r="T30">
+        <v>6</v>
+      </c>
+      <c r="U30">
+        <v>6</v>
+      </c>
+      <c r="V30">
+        <v>6</v>
+      </c>
+      <c r="W30">
+        <v>6</v>
+      </c>
+      <c r="X30">
+        <v>4</v>
+      </c>
+      <c r="Z30">
+        <v>6</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>6</v>
+      </c>
+      <c r="AC30">
+        <v>2</v>
+      </c>
+      <c r="AD30">
+        <v>6</v>
+      </c>
+      <c r="AE30">
+        <v>5</v>
+      </c>
+      <c r="AF30">
+        <v>6</v>
+      </c>
+      <c r="AG30">
+        <v>4</v>
+      </c>
+      <c r="AH30">
+        <v>6</v>
+      </c>
+      <c r="AI30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>6</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="K31">
+        <v>6</v>
+      </c>
+      <c r="L31">
+        <v>6</v>
+      </c>
+      <c r="M31">
+        <v>6</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+      <c r="O31">
+        <v>6</v>
+      </c>
+      <c r="Q31">
+        <v>6</v>
+      </c>
+      <c r="T31">
+        <v>6</v>
+      </c>
+      <c r="U31">
+        <v>6</v>
+      </c>
+      <c r="V31">
+        <v>6</v>
+      </c>
+      <c r="W31">
+        <v>6</v>
+      </c>
+      <c r="AB31">
+        <v>6</v>
+      </c>
+      <c r="AD31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>6</v>
+      </c>
+      <c r="J32">
+        <v>6</v>
+      </c>
+      <c r="K32">
+        <v>6</v>
+      </c>
+      <c r="L32">
+        <v>6</v>
+      </c>
+      <c r="M32">
+        <v>6</v>
+      </c>
+      <c r="N32">
+        <v>6</v>
+      </c>
+      <c r="O32">
+        <v>6</v>
+      </c>
+      <c r="P32">
+        <v>6</v>
+      </c>
+      <c r="Q32">
+        <v>6</v>
+      </c>
+      <c r="S32">
+        <v>6</v>
+      </c>
+      <c r="T32">
+        <v>6</v>
+      </c>
+      <c r="U32">
+        <v>6</v>
+      </c>
+      <c r="W32">
+        <v>6</v>
+      </c>
+      <c r="AA32">
+        <v>2</v>
+      </c>
+      <c r="AB32">
+        <v>6</v>
+      </c>
+      <c r="AC32">
+        <v>4</v>
+      </c>
+      <c r="AD32">
+        <v>4</v>
+      </c>
+      <c r="AE32">
+        <v>5</v>
+      </c>
+      <c r="AF32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+      <c r="J33">
+        <v>6</v>
+      </c>
+      <c r="K33">
+        <v>6</v>
+      </c>
+      <c r="L33">
+        <v>6</v>
+      </c>
+      <c r="N33">
+        <v>6</v>
+      </c>
+      <c r="O33">
+        <v>6</v>
+      </c>
+      <c r="P33">
+        <v>6</v>
+      </c>
+      <c r="Q33">
+        <v>4</v>
+      </c>
+      <c r="S33">
+        <v>5</v>
+      </c>
+      <c r="T33">
+        <v>6</v>
+      </c>
+      <c r="U33">
+        <v>6</v>
+      </c>
+      <c r="V33">
+        <v>6</v>
+      </c>
+      <c r="W33">
+        <v>6</v>
+      </c>
+      <c r="AA33">
+        <v>3</v>
+      </c>
+      <c r="AB33">
+        <v>6</v>
+      </c>
+      <c r="AC33">
+        <v>6</v>
+      </c>
+      <c r="AD33">
+        <v>6</v>
+      </c>
+      <c r="AE33">
+        <v>6</v>
+      </c>
+      <c r="AF33">
+        <v>6</v>
+      </c>
+      <c r="AG33">
+        <v>3</v>
+      </c>
+      <c r="AH33">
+        <v>3</v>
+      </c>
+      <c r="AI33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39">
+      <c r="A34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>6</v>
+      </c>
+      <c r="J34">
+        <v>6</v>
+      </c>
+      <c r="K34">
+        <v>6</v>
+      </c>
+      <c r="L34">
+        <v>6</v>
+      </c>
+      <c r="M34">
+        <v>6</v>
+      </c>
+      <c r="N34">
+        <v>6</v>
+      </c>
+      <c r="O34">
+        <v>5</v>
+      </c>
+      <c r="P34">
+        <v>6</v>
+      </c>
+      <c r="Q34">
+        <v>6</v>
+      </c>
+      <c r="S34">
+        <v>6</v>
+      </c>
+      <c r="T34">
+        <v>6</v>
+      </c>
+      <c r="U34">
+        <v>6</v>
+      </c>
+      <c r="V34">
+        <v>6</v>
+      </c>
+      <c r="W34">
+        <v>6</v>
+      </c>
+      <c r="X34">
+        <v>4</v>
+      </c>
+      <c r="Z34">
+        <v>6</v>
+      </c>
+      <c r="AA34">
+        <v>3</v>
+      </c>
+      <c r="AB34">
+        <v>6</v>
+      </c>
+      <c r="AC34">
+        <v>3</v>
+      </c>
+      <c r="AD34">
+        <v>6</v>
+      </c>
+      <c r="AE34">
+        <v>5</v>
+      </c>
+      <c r="AF34">
+        <v>6</v>
+      </c>
+      <c r="AG34">
+        <v>6</v>
+      </c>
+      <c r="AH34">
+        <v>6</v>
+      </c>
+      <c r="AI34">
+        <v>6</v>
+      </c>
+      <c r="AJ34">
+        <v>3</v>
+      </c>
+      <c r="AK34">
+        <v>6</v>
+      </c>
+      <c r="AL34">
+        <v>6</v>
+      </c>
+      <c r="AM34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39">
+      <c r="A35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+      <c r="I35">
+        <v>6</v>
+      </c>
+      <c r="J35">
+        <v>6</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>6</v>
+      </c>
+      <c r="M35">
+        <v>6</v>
+      </c>
+      <c r="N35">
+        <v>6</v>
+      </c>
+      <c r="O35">
+        <v>6</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>6</v>
+      </c>
+      <c r="R35">
+        <v>3</v>
+      </c>
+      <c r="S35">
+        <v>6</v>
+      </c>
+      <c r="T35">
+        <v>6</v>
+      </c>
+      <c r="U35">
+        <v>6</v>
+      </c>
+      <c r="V35">
+        <v>4</v>
+      </c>
+      <c r="W35">
+        <v>3</v>
+      </c>
+      <c r="X35">
+        <v>3</v>
+      </c>
+      <c r="AB35">
+        <v>6</v>
+      </c>
+      <c r="AC35">
+        <v>3</v>
+      </c>
+      <c r="AD35">
+        <v>6</v>
+      </c>
+      <c r="AE35">
+        <v>5</v>
+      </c>
+      <c r="AF35">
+        <v>6</v>
+      </c>
+      <c r="AG35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>6</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
+      </c>
+      <c r="L36">
+        <v>6</v>
+      </c>
+      <c r="M36">
+        <v>6</v>
+      </c>
+      <c r="N36">
+        <v>6</v>
+      </c>
+      <c r="O36">
+        <v>6</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
+      <c r="R36">
+        <v>6</v>
+      </c>
+      <c r="S36">
+        <v>5</v>
+      </c>
+      <c r="T36">
+        <v>6</v>
+      </c>
+      <c r="U36">
+        <v>6</v>
+      </c>
+      <c r="V36">
+        <v>6</v>
+      </c>
+      <c r="W36">
+        <v>5</v>
+      </c>
+      <c r="X36">
+        <v>2</v>
+      </c>
+      <c r="AB36">
+        <v>6</v>
+      </c>
+      <c r="AC36">
+        <v>1</v>
+      </c>
+      <c r="AD36">
+        <v>3</v>
+      </c>
+      <c r="AE36">
+        <v>4</v>
+      </c>
+      <c r="AF36">
+        <v>6</v>
+      </c>
+      <c r="AG36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39">
+      <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37">
+        <v>6</v>
+      </c>
+      <c r="J37">
+        <v>6</v>
+      </c>
+      <c r="K37">
+        <v>6</v>
+      </c>
+      <c r="L37">
+        <v>6</v>
+      </c>
+      <c r="M37">
+        <v>6</v>
+      </c>
+      <c r="N37">
+        <v>6</v>
+      </c>
+      <c r="O37">
+        <v>6</v>
+      </c>
+      <c r="P37">
+        <v>6</v>
+      </c>
+      <c r="Q37">
+        <v>6</v>
+      </c>
+      <c r="R37">
+        <v>4</v>
+      </c>
+      <c r="S37">
+        <v>6</v>
+      </c>
+      <c r="T37">
+        <v>6</v>
+      </c>
+      <c r="U37">
+        <v>6</v>
+      </c>
+      <c r="V37">
+        <v>4</v>
+      </c>
+      <c r="W37">
+        <v>6</v>
+      </c>
+      <c r="X37">
+        <v>6</v>
+      </c>
+      <c r="AB37">
+        <v>6</v>
+      </c>
+      <c r="AC37">
+        <v>6</v>
+      </c>
+      <c r="AD37">
+        <v>6</v>
+      </c>
+      <c r="AE37">
+        <v>6</v>
+      </c>
+      <c r="AF37">
+        <v>6</v>
+      </c>
+      <c r="AG37">
+        <v>4</v>
+      </c>
+      <c r="AH37">
+        <v>6</v>
+      </c>
+      <c r="AI37">
+        <v>6</v>
+      </c>
+      <c r="AJ37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39">
+      <c r="A38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>6</v>
+      </c>
+      <c r="J38">
+        <v>6</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>6</v>
+      </c>
+      <c r="N38">
+        <v>4</v>
+      </c>
+      <c r="O38">
+        <v>6</v>
+      </c>
+      <c r="P38">
+        <v>4</v>
+      </c>
+      <c r="Q38">
+        <v>6</v>
+      </c>
+      <c r="S38">
+        <v>3</v>
+      </c>
+      <c r="T38">
+        <v>6</v>
+      </c>
+      <c r="U38">
+        <v>6</v>
+      </c>
+      <c r="V38">
+        <v>6</v>
+      </c>
+      <c r="W38">
+        <v>6</v>
+      </c>
+      <c r="AB38">
+        <v>6</v>
+      </c>
+      <c r="AC38">
+        <v>2</v>
+      </c>
+      <c r="AD38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39">
+      <c r="A39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <v>6</v>
+      </c>
+      <c r="J39">
+        <v>6</v>
+      </c>
+      <c r="K39">
+        <v>6</v>
+      </c>
+      <c r="L39">
+        <v>6</v>
+      </c>
+      <c r="M39">
+        <v>6</v>
+      </c>
+      <c r="N39">
+        <v>6</v>
+      </c>
+      <c r="O39">
+        <v>5</v>
+      </c>
+      <c r="P39">
+        <v>3</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>6</v>
+      </c>
+      <c r="T39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39">
+      <c r="A40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>6</v>
+      </c>
+      <c r="J40">
+        <v>6</v>
+      </c>
+      <c r="K40">
+        <v>6</v>
+      </c>
+      <c r="L40">
+        <v>6</v>
+      </c>
+      <c r="M40">
+        <v>6</v>
+      </c>
+      <c r="N40">
+        <v>6</v>
+      </c>
+      <c r="O40">
+        <v>5</v>
+      </c>
+      <c r="P40">
+        <v>3</v>
+      </c>
+      <c r="Q40">
+        <v>6</v>
+      </c>
+      <c r="R40">
+        <v>4</v>
+      </c>
+      <c r="S40">
+        <v>6</v>
+      </c>
+      <c r="U40">
+        <v>6</v>
+      </c>
+      <c r="V40">
+        <v>6</v>
+      </c>
+      <c r="W40">
+        <v>6</v>
+      </c>
+      <c r="X40">
+        <v>6</v>
+      </c>
+      <c r="AB40">
+        <v>6</v>
+      </c>
+      <c r="AC40">
+        <v>2</v>
+      </c>
+      <c r="AD40">
+        <v>3</v>
+      </c>
+      <c r="AE40">
+        <v>3</v>
+      </c>
+      <c r="AF40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39">
+      <c r="A41" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
+      </c>
+      <c r="K41">
+        <v>6</v>
+      </c>
+      <c r="L41">
+        <v>6</v>
+      </c>
+      <c r="M41">
+        <v>6</v>
+      </c>
+      <c r="N41">
+        <v>6</v>
+      </c>
+      <c r="O41">
+        <v>6</v>
+      </c>
+      <c r="P41">
+        <v>6</v>
+      </c>
+      <c r="Q41">
+        <v>6</v>
+      </c>
+      <c r="S41">
+        <v>5</v>
+      </c>
+      <c r="T41">
+        <v>6</v>
+      </c>
+      <c r="U41">
+        <v>6</v>
+      </c>
+      <c r="V41">
+        <v>6</v>
+      </c>
+      <c r="W41">
+        <v>6</v>
+      </c>
+      <c r="X41">
+        <v>3</v>
+      </c>
+      <c r="AB41">
+        <v>6</v>
+      </c>
+      <c r="AC41">
+        <v>6</v>
+      </c>
+      <c r="AE41">
+        <v>6</v>
+      </c>
+      <c r="AF41">
+        <v>6</v>
+      </c>
+      <c r="AG41">
+        <v>6</v>
+      </c>
+      <c r="AK41">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
